--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Edn1</t>
   </si>
   <si>
     <t>Ednrb</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.42578233333333</v>
+        <v>20.66988266666667</v>
       </c>
       <c r="H2">
-        <v>52.277347</v>
+        <v>62.009648</v>
       </c>
       <c r="I2">
-        <v>0.9575955782190683</v>
+        <v>0.9592026714402365</v>
       </c>
       <c r="J2">
-        <v>0.9575955782190683</v>
+        <v>0.9592026714402365</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.20462366666667</v>
+        <v>20.92735966666666</v>
       </c>
       <c r="N2">
-        <v>66.613871</v>
+        <v>62.782079</v>
       </c>
       <c r="O2">
-        <v>0.2978227249605296</v>
+        <v>0.717329969634113</v>
       </c>
       <c r="P2">
-        <v>0.2978227249605296</v>
+        <v>0.717329969634113</v>
       </c>
       <c r="Q2">
-        <v>386.9329388089153</v>
+        <v>432.5660688331324</v>
       </c>
       <c r="R2">
-        <v>3482.396449280237</v>
+        <v>3893.094619498192</v>
       </c>
       <c r="S2">
-        <v>0.2851937245153569</v>
+        <v>0.688064823177185</v>
       </c>
       <c r="T2">
-        <v>0.2851937245153569</v>
+        <v>0.688064823177185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.42578233333333</v>
+        <v>20.66988266666667</v>
       </c>
       <c r="H3">
-        <v>52.277347</v>
+        <v>62.009648</v>
       </c>
       <c r="I3">
-        <v>0.9575955782190683</v>
+        <v>0.9592026714402365</v>
       </c>
       <c r="J3">
-        <v>0.9575955782190683</v>
+        <v>0.9592026714402365</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.849891</v>
       </c>
       <c r="O3">
-        <v>0.003799761967585241</v>
+        <v>0.009710610016949358</v>
       </c>
       <c r="P3">
-        <v>0.003799761967585242</v>
+        <v>0.009710610016949358</v>
       </c>
       <c r="Q3">
-        <v>4.936671857686333</v>
+        <v>5.855715749818666</v>
       </c>
       <c r="R3">
-        <v>44.430046719177</v>
+        <v>52.701441748368</v>
       </c>
       <c r="S3">
-        <v>0.003638635258444614</v>
+        <v>0.009314443069572145</v>
       </c>
       <c r="T3">
-        <v>0.003638635258444614</v>
+        <v>0.009314443069572145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.42578233333333</v>
+        <v>20.66988266666667</v>
       </c>
       <c r="H4">
-        <v>52.277347</v>
+        <v>62.009648</v>
       </c>
       <c r="I4">
-        <v>0.9575955782190683</v>
+        <v>0.9592026714402365</v>
       </c>
       <c r="J4">
-        <v>0.9575955782190683</v>
+        <v>0.9592026714402365</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.39074133333333</v>
+        <v>2.195310666666666</v>
       </c>
       <c r="N4">
-        <v>49.172224</v>
+        <v>6.585932</v>
       </c>
       <c r="O4">
-        <v>0.2198431876755752</v>
+        <v>0.07524896398496668</v>
       </c>
       <c r="P4">
-        <v>0.2198431876755751</v>
+        <v>0.07524896398496668</v>
       </c>
       <c r="Q4">
-        <v>285.6214907566365</v>
+        <v>45.37681389688177</v>
       </c>
       <c r="R4">
-        <v>2570.593416809728</v>
+        <v>408.391325071936</v>
       </c>
       <c r="S4">
-        <v>0.2105208644197155</v>
+        <v>0.07217900727749019</v>
       </c>
       <c r="T4">
-        <v>0.2105208644197155</v>
+        <v>0.07217900727749019</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.42578233333333</v>
+        <v>20.66988266666667</v>
       </c>
       <c r="H5">
-        <v>52.277347</v>
+        <v>62.009648</v>
       </c>
       <c r="I5">
-        <v>0.9575955782190683</v>
+        <v>0.9592026714402365</v>
       </c>
       <c r="J5">
-        <v>0.9575955782190683</v>
+        <v>0.9592026714402365</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.585055</v>
+        <v>3.329509666666667</v>
       </c>
       <c r="N5">
-        <v>70.75516500000001</v>
+        <v>9.988529</v>
       </c>
       <c r="O5">
-        <v>0.3163379597821585</v>
+        <v>0.1141260582380437</v>
       </c>
       <c r="P5">
-        <v>0.3163379597821585</v>
+        <v>0.1141260582380437</v>
       </c>
       <c r="Q5">
-        <v>410.988034749695</v>
+        <v>68.82057414753244</v>
       </c>
       <c r="R5">
-        <v>3698.892312747255</v>
+        <v>619.3851673277919</v>
       </c>
       <c r="S5">
-        <v>0.3029238315102364</v>
+        <v>0.1094700199428755</v>
       </c>
       <c r="T5">
-        <v>0.3029238315102364</v>
+        <v>0.1094700199428755</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.42578233333333</v>
+        <v>20.66988266666667</v>
       </c>
       <c r="H6">
-        <v>52.277347</v>
+        <v>62.009648</v>
       </c>
       <c r="I6">
-        <v>0.9575955782190683</v>
+        <v>0.9592026714402365</v>
       </c>
       <c r="J6">
-        <v>0.9575955782190683</v>
+        <v>0.9592026714402365</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.09279533333333</v>
+        <v>2.438488333333333</v>
       </c>
       <c r="N6">
-        <v>36.278386</v>
+        <v>7.315465</v>
       </c>
       <c r="O6">
-        <v>0.1621963656141516</v>
+        <v>0.08358439812592726</v>
       </c>
       <c r="P6">
-        <v>0.1621963656141515</v>
+        <v>0.08358439812592725</v>
       </c>
       <c r="Q6">
-        <v>210.7264192802158</v>
+        <v>50.40326773403555</v>
       </c>
       <c r="R6">
-        <v>1896.537773521942</v>
+        <v>453.62940960632</v>
       </c>
       <c r="S6">
-        <v>0.1553185225153149</v>
+        <v>0.08017437797311372</v>
       </c>
       <c r="T6">
-        <v>0.1553185225153149</v>
+        <v>0.08017437797311371</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.698466</v>
       </c>
       <c r="I7">
-        <v>0.01279422142704295</v>
+        <v>0.01080429376264442</v>
       </c>
       <c r="J7">
-        <v>0.01279422142704295</v>
+        <v>0.01080429376264442</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.20462366666667</v>
+        <v>20.92735966666666</v>
       </c>
       <c r="N7">
-        <v>66.613871</v>
+        <v>62.782079</v>
       </c>
       <c r="O7">
-        <v>0.2978227249605296</v>
+        <v>0.717329969634113</v>
       </c>
       <c r="P7">
-        <v>0.2978227249605296</v>
+        <v>0.717329969634113</v>
       </c>
       <c r="Q7">
-        <v>5.169724891320667</v>
+        <v>4.872349732312666</v>
       </c>
       <c r="R7">
-        <v>46.527524021886</v>
+        <v>43.851147590814</v>
       </c>
       <c r="S7">
-        <v>0.003810409889150329</v>
+        <v>0.00775024371667576</v>
       </c>
       <c r="T7">
-        <v>0.003810409889150329</v>
+        <v>0.007750243716675762</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.698466</v>
       </c>
       <c r="I8">
-        <v>0.01279422142704295</v>
+        <v>0.01080429376264442</v>
       </c>
       <c r="J8">
-        <v>0.01279422142704295</v>
+        <v>0.01080429376264442</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.849891</v>
       </c>
       <c r="O8">
-        <v>0.003799761967585241</v>
+        <v>0.009710610016949358</v>
       </c>
       <c r="P8">
-        <v>0.003799761967585242</v>
+        <v>0.009710610016949358</v>
       </c>
       <c r="Q8">
         <v>0.06595777413399999</v>
@@ -948,10 +948,10 @@
         <v>0.593619967206</v>
       </c>
       <c r="S8">
-        <v>4.861499598334199E-05</v>
+        <v>0.0001049162832375984</v>
       </c>
       <c r="T8">
-        <v>4.8614995983342E-05</v>
+        <v>0.0001049162832375984</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>0.698466</v>
       </c>
       <c r="I9">
-        <v>0.01279422142704295</v>
+        <v>0.01080429376264442</v>
       </c>
       <c r="J9">
-        <v>0.01279422142704295</v>
+        <v>0.01080429376264442</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.39074133333333</v>
+        <v>2.195310666666666</v>
       </c>
       <c r="N9">
-        <v>49.172224</v>
+        <v>6.585932</v>
       </c>
       <c r="O9">
-        <v>0.2198431876755752</v>
+        <v>0.07524896398496668</v>
       </c>
       <c r="P9">
-        <v>0.2198431876755751</v>
+        <v>0.07524896398496668</v>
       </c>
       <c r="Q9">
-        <v>3.816125178709334</v>
+        <v>0.5111166200346666</v>
       </c>
       <c r="R9">
-        <v>34.345126608384</v>
+        <v>4.600049580312</v>
       </c>
       <c r="S9">
-        <v>0.002812722422348269</v>
+        <v>0.0008130119122282303</v>
       </c>
       <c r="T9">
-        <v>0.002812722422348269</v>
+        <v>0.0008130119122282304</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>0.698466</v>
       </c>
       <c r="I10">
-        <v>0.01279422142704295</v>
+        <v>0.01080429376264442</v>
       </c>
       <c r="J10">
-        <v>0.01279422142704295</v>
+        <v>0.01080429376264442</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.585055</v>
+        <v>3.329509666666667</v>
       </c>
       <c r="N10">
-        <v>70.75516500000001</v>
+        <v>9.988529</v>
       </c>
       <c r="O10">
-        <v>0.3163379597821585</v>
+        <v>0.1141260582380437</v>
       </c>
       <c r="P10">
-        <v>0.3163379597821585</v>
+        <v>0.1141260582380437</v>
       </c>
       <c r="Q10">
-        <v>5.49111967521</v>
+        <v>0.7751830996126666</v>
       </c>
       <c r="R10">
-        <v>49.42007707689</v>
+        <v>6.976647896514</v>
       </c>
       <c r="S10">
-        <v>0.004047297903231944</v>
+        <v>0.001233051459176489</v>
       </c>
       <c r="T10">
-        <v>0.004047297903231945</v>
+        <v>0.001233051459176489</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,10 +1104,10 @@
         <v>0.698466</v>
       </c>
       <c r="I11">
-        <v>0.01279422142704295</v>
+        <v>0.01080429376264442</v>
       </c>
       <c r="J11">
-        <v>0.01279422142704295</v>
+        <v>0.01080429376264442</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.09279533333333</v>
+        <v>2.438488333333333</v>
       </c>
       <c r="N11">
-        <v>36.278386</v>
+        <v>7.315465</v>
       </c>
       <c r="O11">
-        <v>0.1621963656141516</v>
+        <v>0.08358439812592726</v>
       </c>
       <c r="P11">
-        <v>0.1621963656141515</v>
+        <v>0.08358439812592725</v>
       </c>
       <c r="Q11">
-        <v>2.815468795097333</v>
+        <v>0.5677337307433333</v>
       </c>
       <c r="R11">
-        <v>25.339219155876</v>
+        <v>5.10960357669</v>
       </c>
       <c r="S11">
-        <v>0.002075176216329071</v>
+        <v>0.0009030703913263441</v>
       </c>
       <c r="T11">
-        <v>0.002075176216329071</v>
+        <v>0.0009030703913263441</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2319753333333333</v>
+        <v>0.144358</v>
       </c>
       <c r="H12">
-        <v>0.695926</v>
+        <v>0.433074</v>
       </c>
       <c r="I12">
-        <v>0.01274769472076851</v>
+        <v>0.006699050085420723</v>
       </c>
       <c r="J12">
-        <v>0.01274769472076851</v>
+        <v>0.006699050085420723</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.20462366666667</v>
+        <v>20.92735966666666</v>
       </c>
       <c r="N12">
-        <v>66.613871</v>
+        <v>62.782079</v>
       </c>
       <c r="O12">
-        <v>0.2978227249605296</v>
+        <v>0.717329969634113</v>
       </c>
       <c r="P12">
-        <v>0.2978227249605296</v>
+        <v>0.717329969634113</v>
       </c>
       <c r="Q12">
-        <v>5.150924976616222</v>
+        <v>3.021031786760666</v>
       </c>
       <c r="R12">
-        <v>46.358324789546</v>
+        <v>27.189286080846</v>
       </c>
       <c r="S12">
-        <v>0.003796553178704234</v>
+        <v>0.00480542939435225</v>
       </c>
       <c r="T12">
-        <v>0.003796553178704234</v>
+        <v>0.00480542939435225</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2319753333333333</v>
+        <v>0.144358</v>
       </c>
       <c r="H13">
-        <v>0.695926</v>
+        <v>0.433074</v>
       </c>
       <c r="I13">
-        <v>0.01274769472076851</v>
+        <v>0.006699050085420723</v>
       </c>
       <c r="J13">
-        <v>0.01274769472076851</v>
+        <v>0.006699050085420723</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.849891</v>
       </c>
       <c r="O13">
-        <v>0.003799761967585241</v>
+        <v>0.009710610016949358</v>
       </c>
       <c r="P13">
-        <v>0.003799761967585242</v>
+        <v>0.009710610016949358</v>
       </c>
       <c r="Q13">
-        <v>0.06571791600733333</v>
+        <v>0.04089618832599999</v>
       </c>
       <c r="R13">
-        <v>0.591461244066</v>
+        <v>0.3680656949339999</v>
       </c>
       <c r="S13">
-        <v>4.843820557436333E-05</v>
+        <v>6.505186286353193E-05</v>
       </c>
       <c r="T13">
-        <v>4.843820557436334E-05</v>
+        <v>6.505186286353193E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2319753333333333</v>
+        <v>0.144358</v>
       </c>
       <c r="H14">
-        <v>0.695926</v>
+        <v>0.433074</v>
       </c>
       <c r="I14">
-        <v>0.01274769472076851</v>
+        <v>0.006699050085420723</v>
       </c>
       <c r="J14">
-        <v>0.01274769472076851</v>
+        <v>0.006699050085420723</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.39074133333333</v>
+        <v>2.195310666666666</v>
       </c>
       <c r="N14">
-        <v>49.172224</v>
+        <v>6.585932</v>
       </c>
       <c r="O14">
-        <v>0.2198431876755752</v>
+        <v>0.07524896398496668</v>
       </c>
       <c r="P14">
-        <v>0.2198431876755751</v>
+        <v>0.07524896398496668</v>
       </c>
       <c r="Q14">
-        <v>3.802247684380445</v>
+        <v>0.3169106572186666</v>
       </c>
       <c r="R14">
-        <v>34.220229159424</v>
+        <v>2.852195914968</v>
       </c>
       <c r="S14">
-        <v>0.00280249384292885</v>
+        <v>0.000504096578611312</v>
       </c>
       <c r="T14">
-        <v>0.002802493842928849</v>
+        <v>0.000504096578611312</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2319753333333333</v>
+        <v>0.144358</v>
       </c>
       <c r="H15">
-        <v>0.695926</v>
+        <v>0.433074</v>
       </c>
       <c r="I15">
-        <v>0.01274769472076851</v>
+        <v>0.006699050085420723</v>
       </c>
       <c r="J15">
-        <v>0.01274769472076851</v>
+        <v>0.006699050085420723</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.585055</v>
+        <v>3.329509666666667</v>
       </c>
       <c r="N15">
-        <v>70.75516500000001</v>
+        <v>9.988529</v>
       </c>
       <c r="O15">
-        <v>0.3163379597821585</v>
+        <v>0.1141260582380437</v>
       </c>
       <c r="P15">
-        <v>0.3163379597821585</v>
+        <v>0.1141260582380437</v>
       </c>
       <c r="Q15">
-        <v>5.47115099531</v>
+        <v>0.4806413564606666</v>
       </c>
       <c r="R15">
-        <v>49.24035895779001</v>
+        <v>4.325772208146</v>
       </c>
       <c r="S15">
-        <v>0.004032579739893702</v>
+        <v>0.0007645361801882968</v>
       </c>
       <c r="T15">
-        <v>0.004032579739893702</v>
+        <v>0.0007645361801882968</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2319753333333333</v>
+        <v>0.144358</v>
       </c>
       <c r="H16">
-        <v>0.695926</v>
+        <v>0.433074</v>
       </c>
       <c r="I16">
-        <v>0.01274769472076851</v>
+        <v>0.006699050085420723</v>
       </c>
       <c r="J16">
-        <v>0.01274769472076851</v>
+        <v>0.006699050085420723</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.09279533333333</v>
+        <v>2.438488333333333</v>
       </c>
       <c r="N16">
-        <v>36.278386</v>
+        <v>7.315465</v>
       </c>
       <c r="O16">
-        <v>0.1621963656141516</v>
+        <v>0.08358439812592726</v>
       </c>
       <c r="P16">
-        <v>0.1621963656141515</v>
+        <v>0.08358439812592725</v>
       </c>
       <c r="Q16">
-        <v>2.805230228381778</v>
+        <v>0.3520152988233333</v>
       </c>
       <c r="R16">
-        <v>25.247072055436</v>
+        <v>3.16813768941</v>
       </c>
       <c r="S16">
-        <v>0.002067629753667359</v>
+        <v>0.0005599360694053327</v>
       </c>
       <c r="T16">
-        <v>0.002067629753667358</v>
+        <v>0.0005599360694053326</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3068543333333333</v>
+        <v>0.192848</v>
       </c>
       <c r="H17">
-        <v>0.920563</v>
+        <v>0.5785439999999999</v>
       </c>
       <c r="I17">
-        <v>0.01686250563312022</v>
+        <v>0.008949267867892432</v>
       </c>
       <c r="J17">
-        <v>0.01686250563312022</v>
+        <v>0.008949267867892432</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.20462366666667</v>
+        <v>20.92735966666666</v>
       </c>
       <c r="N17">
-        <v>66.613871</v>
+        <v>62.782079</v>
       </c>
       <c r="O17">
-        <v>0.2978227249605296</v>
+        <v>0.717329969634113</v>
       </c>
       <c r="P17">
-        <v>0.2978227249605296</v>
+        <v>0.717329969634113</v>
       </c>
       <c r="Q17">
-        <v>6.813584992152555</v>
+        <v>4.035799456997332</v>
       </c>
       <c r="R17">
-        <v>61.32226492937301</v>
+        <v>36.322195112976</v>
       </c>
       <c r="S17">
-        <v>0.005022037377318144</v>
+        <v>0.006419578047922822</v>
       </c>
       <c r="T17">
-        <v>0.005022037377318144</v>
+        <v>0.006419578047922822</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3068543333333333</v>
+        <v>0.192848</v>
       </c>
       <c r="H18">
-        <v>0.920563</v>
+        <v>0.5785439999999999</v>
       </c>
       <c r="I18">
-        <v>0.01686250563312022</v>
+        <v>0.008949267867892432</v>
       </c>
       <c r="J18">
-        <v>0.01686250563312022</v>
+        <v>0.008949267867892432</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.849891</v>
       </c>
       <c r="O18">
-        <v>0.003799761967585241</v>
+        <v>0.009710610016949358</v>
       </c>
       <c r="P18">
-        <v>0.003799761967585242</v>
+        <v>0.009710610016949358</v>
       </c>
       <c r="Q18">
-        <v>0.08693091207033332</v>
+        <v>0.05463325985599999</v>
       </c>
       <c r="R18">
-        <v>0.782378208633</v>
+        <v>0.4916993387039999</v>
       </c>
       <c r="S18">
-        <v>6.407350758292209E-05</v>
+        <v>8.690285020231928E-05</v>
       </c>
       <c r="T18">
-        <v>6.407350758292209E-05</v>
+        <v>8.690285020231928E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3068543333333333</v>
+        <v>0.192848</v>
       </c>
       <c r="H19">
-        <v>0.920563</v>
+        <v>0.5785439999999999</v>
       </c>
       <c r="I19">
-        <v>0.01686250563312022</v>
+        <v>0.008949267867892432</v>
       </c>
       <c r="J19">
-        <v>0.01686250563312022</v>
+        <v>0.008949267867892432</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.39074133333333</v>
+        <v>2.195310666666666</v>
       </c>
       <c r="N19">
-        <v>49.172224</v>
+        <v>6.585932</v>
       </c>
       <c r="O19">
-        <v>0.2198431876755752</v>
+        <v>0.07524896398496668</v>
       </c>
       <c r="P19">
-        <v>0.2198431876755751</v>
+        <v>0.07524896398496668</v>
       </c>
       <c r="Q19">
-        <v>5.029570004679112</v>
+        <v>0.4233612714453333</v>
       </c>
       <c r="R19">
-        <v>45.266130042112</v>
+        <v>3.810251443008</v>
       </c>
       <c r="S19">
-        <v>0.003707106990582491</v>
+        <v>0.0006734231354828572</v>
       </c>
       <c r="T19">
-        <v>0.003707106990582491</v>
+        <v>0.0006734231354828572</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3068543333333333</v>
+        <v>0.192848</v>
       </c>
       <c r="H20">
-        <v>0.920563</v>
+        <v>0.5785439999999999</v>
       </c>
       <c r="I20">
-        <v>0.01686250563312022</v>
+        <v>0.008949267867892432</v>
       </c>
       <c r="J20">
-        <v>0.01686250563312022</v>
+        <v>0.008949267867892432</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.585055</v>
+        <v>3.329509666666667</v>
       </c>
       <c r="N20">
-        <v>70.75516500000001</v>
+        <v>9.988529</v>
       </c>
       <c r="O20">
-        <v>0.3163379597821585</v>
+        <v>0.1141260582380437</v>
       </c>
       <c r="P20">
-        <v>0.3163379597821585</v>
+        <v>0.1141260582380437</v>
       </c>
       <c r="Q20">
-        <v>7.237176328655</v>
+        <v>0.6420892801973332</v>
       </c>
       <c r="R20">
-        <v>65.13458695789501</v>
+        <v>5.778803521775999</v>
       </c>
       <c r="S20">
-        <v>0.005334250628796403</v>
+        <v>0.001021344665878944</v>
       </c>
       <c r="T20">
-        <v>0.005334250628796404</v>
+        <v>0.001021344665878944</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3068543333333333</v>
+        <v>0.192848</v>
       </c>
       <c r="H21">
-        <v>0.920563</v>
+        <v>0.5785439999999999</v>
       </c>
       <c r="I21">
-        <v>0.01686250563312022</v>
+        <v>0.008949267867892432</v>
       </c>
       <c r="J21">
-        <v>0.01686250563312022</v>
+        <v>0.008949267867892432</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.09279533333333</v>
+        <v>2.438488333333333</v>
       </c>
       <c r="N21">
-        <v>36.278386</v>
+        <v>7.315465</v>
       </c>
       <c r="O21">
-        <v>0.1621963656141516</v>
+        <v>0.08358439812592726</v>
       </c>
       <c r="P21">
-        <v>0.1621963656141515</v>
+        <v>0.08358439812592725</v>
       </c>
       <c r="Q21">
-        <v>3.710726650146444</v>
+        <v>0.4702575981066667</v>
       </c>
       <c r="R21">
-        <v>33.396539851318</v>
+        <v>4.232318382959999</v>
       </c>
       <c r="S21">
-        <v>0.002735037128840257</v>
+        <v>0.0007480191684054893</v>
       </c>
       <c r="T21">
-        <v>0.002735037128840257</v>
+        <v>0.0007480191684054891</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3091146666666666</v>
+      </c>
+      <c r="H22">
+        <v>0.9273439999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.0143447168438059</v>
+      </c>
+      <c r="J22">
+        <v>0.0143447168438059</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>20.92735966666666</v>
+      </c>
+      <c r="N22">
+        <v>62.782079</v>
+      </c>
+      <c r="O22">
+        <v>0.717329969634113</v>
+      </c>
+      <c r="P22">
+        <v>0.717329969634113</v>
+      </c>
+      <c r="Q22">
+        <v>6.46895380757511</v>
+      </c>
+      <c r="R22">
+        <v>58.22058426817599</v>
+      </c>
+      <c r="S22">
+        <v>0.01028989529797723</v>
+      </c>
+      <c r="T22">
+        <v>0.01028989529797723</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3091146666666666</v>
+      </c>
+      <c r="H23">
+        <v>0.9273439999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.0143447168438059</v>
+      </c>
+      <c r="J23">
+        <v>0.0143447168438059</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.283297</v>
+      </c>
+      <c r="N23">
+        <v>0.849891</v>
+      </c>
+      <c r="O23">
+        <v>0.009710610016949358</v>
+      </c>
+      <c r="P23">
+        <v>0.009710610016949358</v>
+      </c>
+      <c r="Q23">
+        <v>0.08757125772266665</v>
+      </c>
+      <c r="R23">
+        <v>0.7881413195039999</v>
+      </c>
+      <c r="S23">
+        <v>0.0001392959510737637</v>
+      </c>
+      <c r="T23">
+        <v>0.0001392959510737637</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3091146666666666</v>
+      </c>
+      <c r="H24">
+        <v>0.9273439999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.0143447168438059</v>
+      </c>
+      <c r="J24">
+        <v>0.0143447168438059</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.195310666666666</v>
+      </c>
+      <c r="N24">
+        <v>6.585932</v>
+      </c>
+      <c r="O24">
+        <v>0.07524896398496668</v>
+      </c>
+      <c r="P24">
+        <v>0.07524896398496668</v>
+      </c>
+      <c r="Q24">
+        <v>0.6786027249564444</v>
+      </c>
+      <c r="R24">
+        <v>6.107424524608</v>
+      </c>
+      <c r="S24">
+        <v>0.001079425081154095</v>
+      </c>
+      <c r="T24">
+        <v>0.001079425081154095</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3091146666666666</v>
+      </c>
+      <c r="H25">
+        <v>0.9273439999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.0143447168438059</v>
+      </c>
+      <c r="J25">
+        <v>0.0143447168438059</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.329509666666667</v>
+      </c>
+      <c r="N25">
+        <v>9.988529</v>
+      </c>
+      <c r="O25">
+        <v>0.1141260582380437</v>
+      </c>
+      <c r="P25">
+        <v>0.1141260582380437</v>
+      </c>
+      <c r="Q25">
+        <v>1.029200270775111</v>
+      </c>
+      <c r="R25">
+        <v>9.262802436975999</v>
+      </c>
+      <c r="S25">
+        <v>0.001637105989924438</v>
+      </c>
+      <c r="T25">
+        <v>0.001637105989924438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3091146666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.9273439999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.0143447168438059</v>
+      </c>
+      <c r="J26">
+        <v>0.0143447168438059</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.438488333333333</v>
+      </c>
+      <c r="N26">
+        <v>7.315465</v>
+      </c>
+      <c r="O26">
+        <v>0.08358439812592726</v>
+      </c>
+      <c r="P26">
+        <v>0.08358439812592725</v>
+      </c>
+      <c r="Q26">
+        <v>0.7537725083288889</v>
+      </c>
+      <c r="R26">
+        <v>6.783952574959999</v>
+      </c>
+      <c r="S26">
+        <v>0.001198994523676367</v>
+      </c>
+      <c r="T26">
+        <v>0.001198994523676367</v>
       </c>
     </row>
   </sheetData>
